--- a/python/two/night3 Error t1=6 t2=3 δ=0.95.xlsx
+++ b/python/two/night3 Error t1=6 t2=3 δ=0.95.xlsx
@@ -470,16 +470,16 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>6</v>
+        <v>6.08</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.0587</v>
+        <v>1.34</v>
       </c>
       <c r="E2" t="n">
-        <v>6.07</v>
+        <v>5.99</v>
       </c>
       <c r="F2" t="n">
-        <v>1.24</v>
+        <v>-0.202</v>
       </c>
     </row>
     <row r="3">
@@ -492,16 +492,16 @@
         <v>3</v>
       </c>
       <c r="C3" t="n">
-        <v>5.48</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>82.59999999999999</v>
+        <v>-66.7</v>
       </c>
       <c r="E3" t="n">
-        <v>6</v>
+        <v>2.74</v>
       </c>
       <c r="F3" t="n">
-        <v>100</v>
+        <v>-8.68</v>
       </c>
     </row>
     <row r="4">
@@ -514,16 +514,16 @@
         <v>0.0001</v>
       </c>
       <c r="C4" t="n">
-        <v>9.99e-05</v>
+        <v>9.98e-05</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.0571</v>
+        <v>-0.246</v>
       </c>
       <c r="E4" t="n">
-        <v>9.99e-05</v>
+        <v>0.000101</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.051</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="5">
@@ -536,16 +536,16 @@
         <v>0.95</v>
       </c>
       <c r="C5" t="n">
-        <v>0.84</v>
+        <v>0.7</v>
       </c>
       <c r="D5" t="n">
-        <v>-11.5</v>
+        <v>-26.4</v>
       </c>
       <c r="E5" t="n">
-        <v>0.05</v>
+        <v>0.82</v>
       </c>
       <c r="F5" t="n">
-        <v>-94.7</v>
+        <v>-13.7</v>
       </c>
     </row>
     <row r="6">
@@ -561,13 +561,13 @@
         <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>-1.11e-14</v>
+        <v>-1.5e-05</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>-1.21e-05</v>
+        <v>-1.11e-14</v>
       </c>
     </row>
     <row r="7">
@@ -580,7 +580,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>6490</v>
+        <v>334000</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -588,7 +588,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>3400</v>
+        <v>51900</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -606,7 +606,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>33.3</v>
+        <v>1710</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -614,7 +614,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>17.4</v>
+        <v>266</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>

--- a/python/two/night3 Error t1=6 t2=3 δ=0.95.xlsx
+++ b/python/two/night3 Error t1=6 t2=3 δ=0.95.xlsx
@@ -470,16 +470,16 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>6.08</v>
+        <v>62.8</v>
       </c>
       <c r="D2" t="n">
-        <v>1.34</v>
+        <v>947</v>
       </c>
       <c r="E2" t="n">
-        <v>5.99</v>
+        <v>6.02</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.202</v>
+        <v>0.271</v>
       </c>
     </row>
     <row r="3">
@@ -492,16 +492,16 @@
         <v>3</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>5.94</v>
       </c>
       <c r="D3" t="n">
-        <v>-66.7</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="E3" t="n">
-        <v>2.74</v>
+        <v>5.92</v>
       </c>
       <c r="F3" t="n">
-        <v>-8.68</v>
+        <v>97.2</v>
       </c>
     </row>
     <row r="4">
@@ -514,16 +514,16 @@
         <v>0.0001</v>
       </c>
       <c r="C4" t="n">
-        <v>9.98e-05</v>
+        <v>0.000101</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.246</v>
+        <v>0.595</v>
       </c>
       <c r="E4" t="n">
         <v>0.000101</v>
       </c>
       <c r="F4" t="n">
-        <v>1.08</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="5">
@@ -536,16 +536,16 @@
         <v>0.95</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7</v>
+        <v>3.67e-05</v>
       </c>
       <c r="D5" t="n">
-        <v>-26.4</v>
+        <v>-100</v>
       </c>
       <c r="E5" t="n">
-        <v>0.82</v>
+        <v>0.138</v>
       </c>
       <c r="F5" t="n">
-        <v>-13.7</v>
+        <v>-85.40000000000001</v>
       </c>
     </row>
     <row r="6">
@@ -561,7 +561,7 @@
         <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>-1.5e-05</v>
+        <v>-6.17e-05</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
@@ -580,7 +580,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>334000</v>
+        <v>313000</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -588,7 +588,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>51900</v>
+        <v>156000</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -606,7 +606,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>1710</v>
+        <v>1610</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -614,7 +614,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>266</v>
+        <v>799</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>

--- a/python/two/night3 Error t1=6 t2=3 δ=0.95.xlsx
+++ b/python/two/night3 Error t1=6 t2=3 δ=0.95.xlsx
@@ -470,16 +470,16 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>62.8</v>
+        <v>5.97</v>
       </c>
       <c r="D2" t="n">
-        <v>947</v>
+        <v>-0.491</v>
       </c>
       <c r="E2" t="n">
-        <v>6.02</v>
+        <v>5.99</v>
       </c>
       <c r="F2" t="n">
-        <v>0.271</v>
+        <v>-0.0839</v>
       </c>
     </row>
     <row r="3">
@@ -492,16 +492,16 @@
         <v>3</v>
       </c>
       <c r="C3" t="n">
-        <v>5.94</v>
+        <v>6.02</v>
       </c>
       <c r="D3" t="n">
-        <v>97.90000000000001</v>
+        <v>101</v>
       </c>
       <c r="E3" t="n">
-        <v>5.92</v>
+        <v>5.69</v>
       </c>
       <c r="F3" t="n">
-        <v>97.2</v>
+        <v>89.8</v>
       </c>
     </row>
     <row r="4">
@@ -514,16 +514,16 @@
         <v>0.0001</v>
       </c>
       <c r="C4" t="n">
-        <v>0.000101</v>
+        <v>0.0001</v>
       </c>
       <c r="D4" t="n">
-        <v>0.595</v>
+        <v>-0.00602</v>
       </c>
       <c r="E4" t="n">
-        <v>0.000101</v>
+        <v>0.0001</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7</v>
+        <v>0.235</v>
       </c>
     </row>
     <row r="5">
@@ -536,16 +536,16 @@
         <v>0.95</v>
       </c>
       <c r="C5" t="n">
-        <v>3.67e-05</v>
+        <v>0.0518</v>
       </c>
       <c r="D5" t="n">
-        <v>-100</v>
+        <v>-94.5</v>
       </c>
       <c r="E5" t="n">
-        <v>0.138</v>
+        <v>0.848</v>
       </c>
       <c r="F5" t="n">
-        <v>-85.40000000000001</v>
+        <v>-10.8</v>
       </c>
     </row>
     <row r="6">
@@ -561,13 +561,13 @@
         <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>-6.17e-05</v>
+        <v>-8.4e-05</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>-1.11e-14</v>
+        <v>-9.44e-05</v>
       </c>
     </row>
     <row r="7">
@@ -580,7 +580,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>313000</v>
+        <v>4310</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -588,7 +588,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>156000</v>
+        <v>4610</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -606,7 +606,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>1610</v>
+        <v>22.1</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -614,7 +614,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>799</v>
+        <v>23.7</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
